--- a/周赛分析.xlsx
+++ b/周赛分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\languguetest\Cplusplustest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22948F15-9793-4AAF-9024-444FDE3E0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E897D4A-74A8-4728-9AED-69C0503295D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
   </bookViews>
   <sheets>
     <sheet name="周赛" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="LCCPU" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周赛!$A$1:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周赛!$A$1:$G$102</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">周赛!$I$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">周赛!$J$27:$O$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">周赛!$J$28:$O$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t>第 290 场周赛</t>
   </si>
@@ -56,9 +59,6 @@
   <si>
     <t>第 271 场周赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 272 场周赛</t>
   </si>
   <si>
     <t>第 273 场周赛</t>
@@ -550,28 +550,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1300-1550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1550-1700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000-2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2231. 按奇偶性交换后的最大数字 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2232. 向表达式添加括号后的最小结果 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2233. K 次增加后的最大乘积 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2234. 花园的最大总美丽值 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2224. 转化时间需要的最少操作数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2225. 找出输掉零场或一场比赛的玩家 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2226. 每个小孩最多能分到多少糖果 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2227. 加密解密字符串 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2119. 反转两次的数字 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2120. 执行所有后缀指令 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2121. 相同元素的间隔之和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2122. 还原原数组 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2103. 环和杆 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2104. 子数组范围和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2105. 给植物浇水 II - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2106. 摘水果 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>1300-1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600-1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 317 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 316 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 314 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 313 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 312 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 311 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 272 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第 340 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2108. 找出数组中的第一个回文字符串 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2109. 向字符串添加空格 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2110. 股票平滑下跌阶段的数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2111. 使数组 K 递增的最少操作次数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2413. 最小偶倍数 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2414. 最长的字母序连续子字符串的长度 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2415. 反转二叉树的奇数层 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2416. 字符串的前缀分数和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2418. 按身高排序 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2419. 按位与最大的最长子数组 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2420. 找到所有好下标 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2421. 好路径的数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2427. 公因子的数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2428. 沙漏的最大总和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2429. 最小 XOR - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2430. 对字母串可执行的最大删除数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2432. 处理用时最长的那个任务的员工 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2433. 找出前缀异或的原始数组 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2434. 使用机器人打印字典序最小的字符串 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2435. 矩阵中和能被 K 整除的路径 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2446. 判断两个事件是否存在冲突 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2447. 最大公因数等于 K 的子数组数目 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2448. 使数组相等的最小开销 - 力扣（Leetcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2449. 使数组相似的最少操作次数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2455. 可被三整除的偶数的平均值 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2456. 最流行的视频创作者 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2457. 美丽整数的最小增量 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2458. 移除子树后的二叉树高度 - 力扣（Leetcode）</t>
   </si>
 </sst>
 </file>
@@ -659,7 +824,77 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -709,7 +944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>周赛!$J$12</c:f>
+              <c:f>周赛!$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +1023,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>周赛!$I$13</c:f>
+              <c:f>周赛!$I$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -799,12 +1034,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>周赛!$J$13</c:f>
+              <c:f>周赛!$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,11 +1055,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>周赛!$K$12</c:f>
+              <c:f>周赛!$K$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1300-1550</c:v>
+                  <c:v>1300-1600</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -899,7 +1134,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>周赛!$I$13</c:f>
+              <c:f>周赛!$I$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -910,12 +1145,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>周赛!$K$13</c:f>
+              <c:f>周赛!$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,11 +1166,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>周赛!$L$12</c:f>
+              <c:f>周赛!$L$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1550-1700</c:v>
+                  <c:v>1600-1800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,7 +1245,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>周赛!$I$13</c:f>
+              <c:f>周赛!$I$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,12 +1256,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>周赛!$L$13</c:f>
+              <c:f>周赛!$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,11 +1277,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>周赛!$M$12</c:f>
+              <c:f>周赛!$M$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1700-2000</c:v>
+                  <c:v>1800-2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,7 +1356,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>周赛!$I$13</c:f>
+              <c:f>周赛!$I$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1132,12 +1367,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>周赛!$M$13</c:f>
+              <c:f>周赛!$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,11 +1388,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>周赛!$N$12</c:f>
+              <c:f>周赛!$N$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000-2500</c:v>
+                  <c:v>2000+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1232,7 +1467,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>周赛!$I$13</c:f>
+              <c:f>周赛!$I$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,12 +1478,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>周赛!$N$13</c:f>
+              <c:f>周赛!$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,117 +1491,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C47A-495A-8709-E7E952A03353}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>周赛!$O$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2500+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>周赛!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>题目频率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>周赛!$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C47A-495A-8709-E7E952A03353}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1574,7 +1698,387 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>周赛!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>题目频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>周赛!$J$27:$N$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000-1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300-1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600-1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800-2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>周赛!$J$28:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-111C-4EFE-938B-35E5473896F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2117,20 +2621,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2150,6 +3173,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BC4EB5-5074-496A-A576-B4BB7DEDABE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2455,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2470,89 +3529,89 @@
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>1188</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>1607</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>1908</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>2250</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -2561,590 +3620,625 @@
         <v>1300</v>
       </c>
       <c r="L5">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="M5">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N5">
         <v>2000</v>
       </c>
       <c r="O5">
-        <v>2500</v>
-      </c>
-      <c r="P5">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>1257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J6">
         <f>COUNTIF($C:$C,"&lt;="&amp;K5)-COUNTIF($C:$C,"&lt;"&amp;J5)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <f>COUNTIF($C:$C,"&lt;="&amp;L5)-COUNTIF($C:$C,"&lt;"&amp;K5)</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <f>COUNTIF($C:$C,"&lt;="&amp;M5)-COUNTIF($C:$C,"&lt;"&amp;L5)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M6">
         <f>COUNTIF($C:$C,"&lt;="&amp;N5)-COUNTIF($C:$C,"&lt;"&amp;M5)</f>
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <f>COUNTIF($C:$C,"&lt;="&amp;O5)-COUNTIF($C:$C,"&lt;"&amp;N5)</f>
+        <v>22</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(J6:O6)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>1504</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>1507</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>2062</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>1215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11">
+        <v>1315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>1408</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>1940</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>1187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>1379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16">
+        <v>1760</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>2158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>1295</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19">
+        <v>1316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>1646</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>1944</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>1365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23">
+        <v>1611</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>1685</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>2561</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>1301</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>1371</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>2036</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>22</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>2126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>1264</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
         <v>7</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N6:O6" si="0">COUNTIF($C:$C,"&lt;="&amp;O5)-COUNTIF($C:$C,"&lt;"&amp;N5)</f>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>1602</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
         <v>8</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>1997</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" t="s">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>8</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <f>SUM(J13:O13)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>1331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>1364</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>1724</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>2033</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>1242</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16">
-        <v>1558</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17">
-        <v>1839</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18">
-        <v>2363</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>1264</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20">
-        <v>1602</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
+      <c r="C38">
+        <v>1308</v>
+      </c>
+      <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23">
-        <v>1331</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <v>1364</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27">
-        <v>1308</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="1" t="s">
+      <c r="C39">
+        <v>1472</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C28">
-        <v>1472</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="1" t="s">
+      <c r="C40">
+        <v>1856</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C29">
-        <v>1856</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
+      <c r="C41">
         <v>2084</v>
       </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C42">
+        <v>1294</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31">
-        <v>1294</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="1" t="s">
+      <c r="C43">
+        <v>1332</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32">
-        <v>1332</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="1" t="s">
+      <c r="C44">
+        <v>1642</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C33">
-        <v>1642</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34">
+      <c r="C45">
         <v>2222</v>
       </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C46">
+        <v>1161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C35">
-        <v>1161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="1" t="s">
+      <c r="C47">
+        <v>1249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C36">
-        <v>1249</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37">
+      <c r="C48">
         <v>1680</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>2621</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <v>1387</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40">
-        <v>1347</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>1455</v>
-      </c>
-      <c r="D41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
-        <v>1960</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43">
-        <v>1153</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44">
-        <v>1559</v>
-      </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45">
-        <v>1635</v>
-      </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46">
-        <v>2013</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47">
-        <v>1278</v>
-      </c>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48">
-        <v>1374</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -3152,35 +4246,35 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C49">
-        <v>1909</v>
+        <v>2621</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>2159</v>
+        <v>1242</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>1178</v>
+        <v>1558</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -3188,10 +4282,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C52">
-        <v>1336</v>
+        <v>1839</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -3199,348 +4293,888 @@
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C53">
-        <v>1696</v>
+        <v>2363</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C54">
-        <v>2380</v>
+        <v>1387</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>1434</v>
+        <v>1347</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>1779</v>
+        <v>1455</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>1903</v>
+        <v>1960</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C58">
-        <v>2711</v>
+        <v>1144</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>120</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
+      </c>
+      <c r="C59">
+        <v>1221</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>180</v>
+      </c>
+      <c r="C60">
+        <v>1431</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61">
+        <v>1725</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62">
+        <v>1193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63">
+        <v>1495</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64">
+        <v>1695</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65">
+        <v>2444</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66">
+        <v>1172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67">
+        <v>1289</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68">
+        <v>1532</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69">
+        <v>2101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70">
+        <v>1266</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71">
+        <v>1366</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72">
+        <v>1951</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73">
+        <v>1953</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74">
+        <v>1322</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75">
+        <v>1602</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76">
+        <v>2005</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77">
+        <v>2076</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82">
+        <v>1153</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83">
+        <v>1559</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84">
+        <v>1635</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85">
+        <v>2013</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86">
+        <v>1278</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87">
+        <v>1374</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88">
+        <v>1909</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <v>2159</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>1178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>1336</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>1696</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>2380</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94">
+        <v>1434</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95">
+        <v>1779</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96">
+        <v>1903</v>
+      </c>
+      <c r="D96" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="B97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>2711</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98">
+        <v>1348</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="B99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99">
+        <v>1373</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="B100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>1663</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="1" t="s">
+      <c r="C101">
+        <v>2824</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="N103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="O108" t="s">
         <v>124</v>
       </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="9:16">
-      <c r="N81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="9:16">
-      <c r="O86" t="s">
+      <c r="P108" t="s">
         <v>125</v>
       </c>
-      <c r="P86" t="s">
+    </row>
+    <row r="109" spans="1:16">
+      <c r="N109" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="9:16">
-      <c r="N87" t="s">
+      <c r="O109">
+        <v>1602</v>
+      </c>
+      <c r="P109">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="N110" t="s">
         <v>127</v>
       </c>
-      <c r="O87">
-        <v>1602</v>
-      </c>
-      <c r="P87">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="88" spans="9:16">
-      <c r="N88" t="s">
+      <c r="O110">
+        <v>1153</v>
+      </c>
+      <c r="P110">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="N111" t="s">
         <v>128</v>
       </c>
-      <c r="O88">
-        <v>1153</v>
-      </c>
-      <c r="P88">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="89" spans="9:16">
-      <c r="N89" t="s">
-        <v>129</v>
-      </c>
-      <c r="O89">
+      <c r="O111">
         <v>1308.625</v>
       </c>
-      <c r="P89">
+      <c r="P111">
         <v>1313.0666666666666</v>
       </c>
     </row>
-    <row r="92" spans="9:16">
-      <c r="O92" t="s">
+    <row r="114" spans="8:16">
+      <c r="O114" t="s">
+        <v>124</v>
+      </c>
+      <c r="P114" t="s">
         <v>125</v>
       </c>
-      <c r="P92" t="s">
+    </row>
+    <row r="115" spans="8:16">
+      <c r="N115" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="9:16">
-      <c r="N93" t="s">
+      <c r="O115">
+        <v>2621</v>
+      </c>
+      <c r="P115">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="116" spans="8:16">
+      <c r="N116" t="s">
         <v>127</v>
       </c>
-      <c r="O93">
-        <v>2621</v>
-      </c>
-      <c r="P93">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="94" spans="9:16">
-      <c r="N94" t="s">
+      <c r="O116">
+        <v>1504</v>
+      </c>
+      <c r="P116">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="117" spans="8:16">
+      <c r="N117" t="s">
         <v>128</v>
       </c>
-      <c r="O94">
+      <c r="O117">
+        <v>1911</v>
+      </c>
+      <c r="P117">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="118" spans="8:16">
+      <c r="I118" t="s">
+        <v>32</v>
+      </c>
+      <c r="J118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="8:16">
+      <c r="H119" t="s">
+        <v>116</v>
+      </c>
+      <c r="I119">
+        <f>SUBTOTAL(4,C:C)</f>
+        <v>2824</v>
+      </c>
+      <c r="J119">
+        <f>SUBTOTAL(4,C50:C93)</f>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="120" spans="8:16">
+      <c r="H120" t="s">
+        <v>118</v>
+      </c>
+      <c r="I120">
+        <f>SUBTOTAL(5,C:C)</f>
+        <v>1144</v>
+      </c>
+      <c r="J120">
+        <f>SUBTOTAL(5,C50:C93)</f>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="121" spans="8:16">
+      <c r="H121" t="s">
+        <v>117</v>
+      </c>
+      <c r="I121">
+        <f>SUBTOTAL(1,C:C)</f>
+        <v>1656.76</v>
+      </c>
+      <c r="J121">
+        <f>SUBTOTAL(1,C50:C93)</f>
+        <v>1624.5681818181818</v>
+      </c>
+      <c r="O121">
         <v>1558</v>
       </c>
-      <c r="P94">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="95" spans="9:16">
-      <c r="N95" t="s">
-        <v>129</v>
-      </c>
-      <c r="O95">
-        <v>1938.5714285714287</v>
-      </c>
-      <c r="P95">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="96" spans="9:16">
-      <c r="I96" t="s">
-        <v>33</v>
-      </c>
-      <c r="J96" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="8:15">
-      <c r="H97" t="s">
-        <v>117</v>
-      </c>
-      <c r="I97">
-        <f>SUBTOTAL(4,C11:C52)</f>
-        <v>2621</v>
-      </c>
-      <c r="J97">
-        <f>SUBTOTAL(4,C16:C54)</f>
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="98" spans="8:15">
-      <c r="H98" t="s">
-        <v>119</v>
-      </c>
-      <c r="I98">
-        <f>SUBTOTAL(5,C12:C53)</f>
-        <v>1153</v>
-      </c>
-      <c r="J98">
-        <f>SUBTOTAL(5,C16:C54)</f>
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="99" spans="8:15">
-      <c r="H99" t="s">
-        <v>118</v>
-      </c>
-      <c r="I99">
-        <f>SUBTOTAL(1,C11:C52)</f>
-        <v>1607.1142857142856</v>
-      </c>
-      <c r="J99">
-        <f>SUBTOTAL(1,C16:C54)</f>
-        <v>1641.1944444444443</v>
-      </c>
-      <c r="O99">
-        <v>1558</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G62" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}"/>
+  <autoFilter ref="A1:G102" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>1558</formula>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+      <formula>1700</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>1600</formula>
+      <formula>1700</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" display="https://leetcode.cn/problems/k-items-with-the-maximum-sum/" xr:uid="{488FAA5F-9C49-4264-94BF-18CE818F4B35}"/>
-    <hyperlink ref="B56" r:id="rId2" display="https://leetcode.cn/problems/prime-subtraction-operation/" xr:uid="{9094CA2B-952E-46B6-BF8D-A761A4273B37}"/>
-    <hyperlink ref="B57" r:id="rId3" display="https://leetcode.cn/problems/minimum-operations-to-make-all-array-elements-equal/" xr:uid="{E72653DF-70E4-4F12-95E1-AB1796D8AE4B}"/>
-    <hyperlink ref="B58" r:id="rId4" display="https://leetcode.cn/problems/collect-coins-in-a-tree/" xr:uid="{95C3CD9D-F257-44DC-9A0F-A8F26C49D7CB}"/>
-    <hyperlink ref="B39" r:id="rId5" display="https://leetcode.cn/problems/longest-subsequence-with-limited-sum/" xr:uid="{CB28E1D1-F02B-4370-B263-8A333616DD32}"/>
-    <hyperlink ref="B40" r:id="rId6" display="https://leetcode.cn/problems/removing-stars-from-a-string/" xr:uid="{441E81F1-445B-409B-9A01-729099A16E50}"/>
-    <hyperlink ref="B41" r:id="rId7" display="https://leetcode.cn/problems/minimum-amount-of-time-to-collect-garbage/" xr:uid="{7F86F450-E0F4-47DD-86E3-0C338BA3F3A1}"/>
-    <hyperlink ref="B42" r:id="rId8" display="https://leetcode.cn/problems/build-a-matrix-with-conditions/" xr:uid="{7EB51405-5A81-42F0-B81E-E7A261D09FBD}"/>
-    <hyperlink ref="B24" r:id="rId9" display="https://leetcode.cn/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{4362A3E1-1436-47DD-AD5E-B7EF842C4686}"/>
-    <hyperlink ref="B26" r:id="rId10" display="https://leetcode.cn/problems/total-appeal-of-a-string/" xr:uid="{7EDC73CE-C755-4EE8-8216-71E8EE6045CE}"/>
-    <hyperlink ref="B23" r:id="rId11" display="https://leetcode.cn/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{56AEC1F5-4BB3-432B-B9A2-1803E33857CF}"/>
-    <hyperlink ref="B25" r:id="rId12" display="https://leetcode.cn/problems/k-divisible-elements-subarrays/" xr:uid="{91BF813C-D73C-42CE-9B46-B5875F5A8DCC}"/>
-    <hyperlink ref="B22" r:id="rId13" display="https://leetcode.cn/problems/number-of-flowers-in-full-bloom/" xr:uid="{E774ACB7-64A4-4595-AA40-2D610F93C6AC}"/>
-    <hyperlink ref="B21" r:id="rId14" display="https://leetcode.cn/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{91136382-CB40-4F1F-B161-FA8003B71158}"/>
-    <hyperlink ref="B20" r:id="rId15" display="https://leetcode.cn/problems/count-lattice-points-inside-a-circle/" xr:uid="{753552C0-9201-4777-B4A3-B582067A7674}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://leetcode.cn/problems/intersection-of-multiple-arrays/" xr:uid="{FC4FB3AA-6F49-486D-9257-4A2CDA4E6413}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://leetcode.cn/problems/calculate-digit-sum-of-a-string/" xr:uid="{248CA1CF-8D8B-4C6D-AF06-DDACA597CA1A}"/>
-    <hyperlink ref="B12" r:id="rId18" display="https://leetcode.cn/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{D971E415-B759-439D-80AF-9ADB94EA3088}"/>
-    <hyperlink ref="B13" r:id="rId19" display="https://leetcode.cn/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{5AE2825E-99DA-4399-AC44-CAF7879D350B}"/>
-    <hyperlink ref="B14" r:id="rId20" display="https://leetcode.cn/problems/longest-path-with-different-adjacent-characters/" xr:uid="{F1A07810-7EC6-426E-B233-FAA0BCF7F993}"/>
-    <hyperlink ref="B35" r:id="rId21" display="https://leetcode.cn/problems/percentage-of-letter-in-string/" xr:uid="{98B5095F-4082-4181-BE36-F86531D2F32C}"/>
-    <hyperlink ref="B36" r:id="rId22" display="https://leetcode.cn/problems/maximum-bags-with-full-capacity-of-rocks/" xr:uid="{5711A668-76A4-4D22-A16E-5654211304A7}"/>
-    <hyperlink ref="B37" r:id="rId23" display="https://leetcode.cn/problems/sum-of-total-strength-of-wizards/" xr:uid="{D9FB14C4-1AC0-436D-9343-D809F54E2465}"/>
-    <hyperlink ref="B38" r:id="rId24" display="https://leetcode.cn/problems/minimum-lines-to-represent-a-line-chart/solutions/" xr:uid="{868B8404-86A9-424B-8081-6F4AFDC1EB23}"/>
-    <hyperlink ref="B32" r:id="rId25" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{5DDD6F8E-A264-40A7-9E8C-DA50FD1221E9}"/>
-    <hyperlink ref="B31" r:id="rId26" display="https://leetcode.cn/problems/find-resultant-array-after-removing-anagrams/description/" xr:uid="{1CD5596D-6B28-48E6-965C-B962B008BA7C}"/>
-    <hyperlink ref="B33" r:id="rId27" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{1FB4A619-9BCF-4BAB-AF06-A134B1534400}"/>
-    <hyperlink ref="B34" r:id="rId28" display="https://leetcode.cn/problems/count-integers-in-intervals/" xr:uid="{49A7537A-BC91-46F0-A4B4-05D40E63E32C}"/>
-    <hyperlink ref="B27" r:id="rId29" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{7CC651D0-FFAE-470E-9E76-657991B0690C}"/>
-    <hyperlink ref="B28" r:id="rId30" display="https://leetcode.cn/problems/count-nodes-equal-to-average-of-subtree/" xr:uid="{9A5D1937-8891-44F3-AC4C-9005788CCA3A}"/>
-    <hyperlink ref="B29" r:id="rId31" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{EFC56877-BF26-47F5-87D1-D35BC0355771}"/>
-    <hyperlink ref="B30" r:id="rId32" display="https://leetcode.cn/problems/check-if-there-is-a-valid-parentheses-string-path/" xr:uid="{D2431C42-C681-44E4-B8C0-2086B22F5967}"/>
-    <hyperlink ref="B15" r:id="rId33" display="https://leetcode.cn/problems/greatest-english-letter-in-upper-and-lower-case/" xr:uid="{BE5360FD-6ADB-4E48-8AE6-DDCCDF88D498}"/>
-    <hyperlink ref="B16" r:id="rId34" display="https://leetcode.cn/problems/sum-of-numbers-with-units-digit-k/" xr:uid="{3FCE51B0-1304-498B-BC56-CB8604C64825}"/>
-    <hyperlink ref="B17" r:id="rId35" display="https://leetcode.cn/problems/longest-binary-subsequence-less-than-or-equal-to-k/" xr:uid="{6562D1F6-AC17-4BEF-8322-CE671EB974E1}"/>
-    <hyperlink ref="B18" r:id="rId36" display="https://leetcode.cn/problems/selling-pieces-of-wood/" xr:uid="{700564CA-B91D-4BD9-BD9E-6FD1D4EB5FCE}"/>
-    <hyperlink ref="B51" r:id="rId37" display="https://leetcode.cn/problems/count-the-number-of-vowel-strings-in-range/" xr:uid="{BCEB80F1-C2A1-4118-9648-77D53BCFA2E9}"/>
-    <hyperlink ref="B52" r:id="rId38" display="https://leetcode.cn/problems/rearrange-array-to-maximize-prefix-score/" xr:uid="{1943F9B8-5F9E-4335-AC40-0DB607198079}"/>
-    <hyperlink ref="B53" r:id="rId39" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{05C368BC-D583-41E7-B136-5AA9999FA57F}"/>
-    <hyperlink ref="B54" r:id="rId40" display="https://leetcode.cn/problems/minimum-time-to-complete-all-tasks/" xr:uid="{8A740F08-9CFD-40F2-BB5F-D750AB6705C1}"/>
-    <hyperlink ref="B47" r:id="rId41" display="https://leetcode.cn/problems/pass-the-pillow/" xr:uid="{327F2041-F0E4-4B48-AC6C-21399EBDDE23}"/>
-    <hyperlink ref="B48" r:id="rId42" display="https://leetcode.cn/problems/kth-largest-sum-in-a-binary-tree/" xr:uid="{DA912CA1-E634-45D3-B8A8-ABA5408BCC70}"/>
-    <hyperlink ref="B49" r:id="rId43" display="https://leetcode.cn/problems/split-the-array-to-make-coprime-products/" xr:uid="{47DE5281-84A4-40FA-9FCE-63F2971B6A60}"/>
-    <hyperlink ref="B50" r:id="rId44" display="https://leetcode.cn/problems/number-of-ways-to-earn-points/" xr:uid="{2A188A4E-48A9-4DC6-9942-49F353627078}"/>
-    <hyperlink ref="B43" r:id="rId45" display="https://leetcode.cn/problems/convert-the-temperature/" xr:uid="{E629DD1A-A052-4DCD-A139-9A3C10FF7F80}"/>
-    <hyperlink ref="B44" r:id="rId46" display="https://leetcode.cn/problems/number-of-subarrays-with-lcm-equal-to-k/" xr:uid="{501231E1-1653-47C0-A978-26C362943EB2}"/>
-    <hyperlink ref="B45" r:id="rId47" display="https://leetcode.cn/problems/minimum-number-of-operations-to-sort-a-binary-tree-by-level/" xr:uid="{91CB4BA3-CB06-45A6-9810-E1F01727757D}"/>
-    <hyperlink ref="B46" r:id="rId48" display="https://leetcode.cn/problems/maximum-number-of-non-overlapping-palindrome-substrings/" xr:uid="{84A7705C-D1C6-49D2-BC35-7ACD12D1BF9E}"/>
-    <hyperlink ref="B59" r:id="rId49" display="https://leetcode.cn/problems/find-the-longest-balanced-substring-of-a-binary-string/" xr:uid="{8D293D32-9643-413D-959C-4B5B7A5BF346}"/>
-    <hyperlink ref="B60" r:id="rId50" display="https://leetcode.cn/problems/convert-an-array-into-a-2d-array-with-conditions/" xr:uid="{75BDE847-70BF-46A2-B7C8-D854E7A1B689}"/>
-    <hyperlink ref="B61" r:id="rId51" display="https://leetcode.cn/problems/mice-and-cheese/" xr:uid="{7B20FE76-4E15-4508-9C25-E3B75C79363E}"/>
-    <hyperlink ref="B62" r:id="rId52" display="https://leetcode.cn/problems/minimum-reverse-operations/" xr:uid="{DC7B1091-B1E7-4044-A609-F01D59A1B885}"/>
-    <hyperlink ref="B4" r:id="rId53" display="https://leetcode.cn/contest/weekly-contest-145/problems/longest-well-performing-interval/" xr:uid="{E1BF2635-D751-4CD7-A6C7-7DD4202C1D09}"/>
-    <hyperlink ref="B5" r:id="rId54" display="https://leetcode.cn/problems/smallest-sufficient-team/" xr:uid="{C1F90A54-B394-4FD5-B93E-9D58AE9552CE}"/>
-    <hyperlink ref="B3" r:id="rId55" display="https://leetcode.cn/problems/lowest-common-ancestor-of-deepest-leaves/description/?orderBy=hot" xr:uid="{C0ED08D0-11B4-4C52-B1C4-A921C968BC97}"/>
-    <hyperlink ref="B2" r:id="rId56" display="https://leetcode.cn/problems/relative-sort-array/description/?orderBy=hot" xr:uid="{2B8BA876-9E65-4FAA-9D9E-B3B19B60E4D1}"/>
+    <hyperlink ref="B94" r:id="rId1" display="https://leetcode.cn/problems/k-items-with-the-maximum-sum/" xr:uid="{488FAA5F-9C49-4264-94BF-18CE818F4B35}"/>
+    <hyperlink ref="B95" r:id="rId2" display="https://leetcode.cn/problems/prime-subtraction-operation/" xr:uid="{9094CA2B-952E-46B6-BF8D-A761A4273B37}"/>
+    <hyperlink ref="B96" r:id="rId3" display="https://leetcode.cn/problems/minimum-operations-to-make-all-array-elements-equal/" xr:uid="{E72653DF-70E4-4F12-95E1-AB1796D8AE4B}"/>
+    <hyperlink ref="B97" r:id="rId4" display="https://leetcode.cn/problems/collect-coins-in-a-tree/" xr:uid="{95C3CD9D-F257-44DC-9A0F-A8F26C49D7CB}"/>
+    <hyperlink ref="B54" r:id="rId5" display="https://leetcode.cn/problems/longest-subsequence-with-limited-sum/" xr:uid="{CB28E1D1-F02B-4370-B263-8A333616DD32}"/>
+    <hyperlink ref="B55" r:id="rId6" display="https://leetcode.cn/problems/removing-stars-from-a-string/" xr:uid="{441E81F1-445B-409B-9A01-729099A16E50}"/>
+    <hyperlink ref="B56" r:id="rId7" display="https://leetcode.cn/problems/minimum-amount-of-time-to-collect-garbage/" xr:uid="{7F86F450-E0F4-47DD-86E3-0C338BA3F3A1}"/>
+    <hyperlink ref="B57" r:id="rId8" display="https://leetcode.cn/problems/build-a-matrix-with-conditions/" xr:uid="{7EB51405-5A81-42F0-B81E-E7A261D09FBD}"/>
+    <hyperlink ref="B35" r:id="rId9" display="https://leetcode.cn/problems/minimum-consecutive-cards-to-pick-up/" xr:uid="{4362A3E1-1436-47DD-AD5E-B7EF842C4686}"/>
+    <hyperlink ref="B37" r:id="rId10" display="https://leetcode.cn/problems/total-appeal-of-a-string/" xr:uid="{7EDC73CE-C755-4EE8-8216-71E8EE6045CE}"/>
+    <hyperlink ref="B34" r:id="rId11" display="https://leetcode.cn/problems/remove-digit-from-number-to-maximize-result/" xr:uid="{56AEC1F5-4BB3-432B-B9A2-1803E33857CF}"/>
+    <hyperlink ref="B36" r:id="rId12" display="https://leetcode.cn/problems/k-divisible-elements-subarrays/" xr:uid="{91BF813C-D73C-42CE-9B46-B5875F5A8DCC}"/>
+    <hyperlink ref="B33" r:id="rId13" display="https://leetcode.cn/problems/number-of-flowers-in-full-bloom/" xr:uid="{E774ACB7-64A4-4595-AA40-2D610F93C6AC}"/>
+    <hyperlink ref="B32" r:id="rId14" display="https://leetcode.cn/problems/count-number-of-rectangles-containing-each-point/" xr:uid="{91136382-CB40-4F1F-B161-FA8003B71158}"/>
+    <hyperlink ref="B31" r:id="rId15" display="https://leetcode.cn/problems/count-lattice-points-inside-a-circle/" xr:uid="{753552C0-9201-4777-B4A3-B582067A7674}"/>
+    <hyperlink ref="B30" r:id="rId16" display="https://leetcode.cn/problems/intersection-of-multiple-arrays/" xr:uid="{FC4FB3AA-6F49-486D-9257-4A2CDA4E6413}"/>
+    <hyperlink ref="B26" r:id="rId17" display="https://leetcode.cn/problems/calculate-digit-sum-of-a-string/" xr:uid="{248CA1CF-8D8B-4C6D-AF06-DDACA597CA1A}"/>
+    <hyperlink ref="B27" r:id="rId18" display="https://leetcode.cn/problems/minimum-rounds-to-complete-all-tasks/" xr:uid="{D971E415-B759-439D-80AF-9ADB94EA3088}"/>
+    <hyperlink ref="B28" r:id="rId19" display="https://leetcode.cn/problems/maximum-trailing-zeros-in-a-cornered-path/" xr:uid="{5AE2825E-99DA-4399-AC44-CAF7879D350B}"/>
+    <hyperlink ref="B29" r:id="rId20" display="https://leetcode.cn/problems/longest-path-with-different-adjacent-characters/" xr:uid="{F1A07810-7EC6-426E-B233-FAA0BCF7F993}"/>
+    <hyperlink ref="B46" r:id="rId21" display="https://leetcode.cn/problems/percentage-of-letter-in-string/" xr:uid="{98B5095F-4082-4181-BE36-F86531D2F32C}"/>
+    <hyperlink ref="B47" r:id="rId22" display="https://leetcode.cn/problems/maximum-bags-with-full-capacity-of-rocks/" xr:uid="{5711A668-76A4-4D22-A16E-5654211304A7}"/>
+    <hyperlink ref="B48" r:id="rId23" display="https://leetcode.cn/problems/sum-of-total-strength-of-wizards/" xr:uid="{D9FB14C4-1AC0-436D-9343-D809F54E2465}"/>
+    <hyperlink ref="B49" r:id="rId24" display="https://leetcode.cn/problems/minimum-lines-to-represent-a-line-chart/solutions/" xr:uid="{868B8404-86A9-424B-8081-6F4AFDC1EB23}"/>
+    <hyperlink ref="B43" r:id="rId25" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{5DDD6F8E-A264-40A7-9E8C-DA50FD1221E9}"/>
+    <hyperlink ref="B42" r:id="rId26" display="https://leetcode.cn/problems/find-resultant-array-after-removing-anagrams/description/" xr:uid="{1CD5596D-6B28-48E6-965C-B962B008BA7C}"/>
+    <hyperlink ref="B44" r:id="rId27" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{1FB4A619-9BCF-4BAB-AF06-A134B1534400}"/>
+    <hyperlink ref="B45" r:id="rId28" display="https://leetcode.cn/problems/count-integers-in-intervals/" xr:uid="{49A7537A-BC91-46F0-A4B4-05D40E63E32C}"/>
+    <hyperlink ref="B38" r:id="rId29" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{7CC651D0-FFAE-470E-9E76-657991B0690C}"/>
+    <hyperlink ref="B39" r:id="rId30" display="https://leetcode.cn/problems/count-nodes-equal-to-average-of-subtree/" xr:uid="{9A5D1937-8891-44F3-AC4C-9005788CCA3A}"/>
+    <hyperlink ref="B40" r:id="rId31" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{EFC56877-BF26-47F5-87D1-D35BC0355771}"/>
+    <hyperlink ref="B41" r:id="rId32" display="https://leetcode.cn/problems/check-if-there-is-a-valid-parentheses-string-path/" xr:uid="{D2431C42-C681-44E4-B8C0-2086B22F5967}"/>
+    <hyperlink ref="B90" r:id="rId33" display="https://leetcode.cn/problems/count-the-number-of-vowel-strings-in-range/" xr:uid="{BCEB80F1-C2A1-4118-9648-77D53BCFA2E9}"/>
+    <hyperlink ref="B91" r:id="rId34" display="https://leetcode.cn/problems/rearrange-array-to-maximize-prefix-score/" xr:uid="{1943F9B8-5F9E-4335-AC40-0DB607198079}"/>
+    <hyperlink ref="B92" r:id="rId35" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{05C368BC-D583-41E7-B136-5AA9999FA57F}"/>
+    <hyperlink ref="B93" r:id="rId36" display="https://leetcode.cn/problems/minimum-time-to-complete-all-tasks/" xr:uid="{8A740F08-9CFD-40F2-BB5F-D750AB6705C1}"/>
+    <hyperlink ref="B86" r:id="rId37" display="https://leetcode.cn/problems/pass-the-pillow/" xr:uid="{327F2041-F0E4-4B48-AC6C-21399EBDDE23}"/>
+    <hyperlink ref="B87" r:id="rId38" display="https://leetcode.cn/problems/kth-largest-sum-in-a-binary-tree/" xr:uid="{DA912CA1-E634-45D3-B8A8-ABA5408BCC70}"/>
+    <hyperlink ref="B88" r:id="rId39" display="https://leetcode.cn/problems/split-the-array-to-make-coprime-products/" xr:uid="{47DE5281-84A4-40FA-9FCE-63F2971B6A60}"/>
+    <hyperlink ref="B89" r:id="rId40" display="https://leetcode.cn/problems/number-of-ways-to-earn-points/" xr:uid="{2A188A4E-48A9-4DC6-9942-49F353627078}"/>
+    <hyperlink ref="B82" r:id="rId41" display="https://leetcode.cn/problems/convert-the-temperature/" xr:uid="{E629DD1A-A052-4DCD-A139-9A3C10FF7F80}"/>
+    <hyperlink ref="B83" r:id="rId42" display="https://leetcode.cn/problems/number-of-subarrays-with-lcm-equal-to-k/" xr:uid="{501231E1-1653-47C0-A978-26C362943EB2}"/>
+    <hyperlink ref="B84" r:id="rId43" display="https://leetcode.cn/problems/minimum-number-of-operations-to-sort-a-binary-tree-by-level/" xr:uid="{91CB4BA3-CB06-45A6-9810-E1F01727757D}"/>
+    <hyperlink ref="B85" r:id="rId44" display="https://leetcode.cn/problems/maximum-number-of-non-overlapping-palindrome-substrings/" xr:uid="{84A7705C-D1C6-49D2-BC35-7ACD12D1BF9E}"/>
+    <hyperlink ref="B98" r:id="rId45" display="https://leetcode.cn/problems/find-the-longest-balanced-substring-of-a-binary-string/" xr:uid="{8D293D32-9643-413D-959C-4B5B7A5BF346}"/>
+    <hyperlink ref="B99" r:id="rId46" display="https://leetcode.cn/problems/convert-an-array-into-a-2d-array-with-conditions/" xr:uid="{75BDE847-70BF-46A2-B7C8-D854E7A1B689}"/>
+    <hyperlink ref="B100" r:id="rId47" display="https://leetcode.cn/problems/mice-and-cheese/" xr:uid="{7B20FE76-4E15-4508-9C25-E3B75C79363E}"/>
+    <hyperlink ref="B101" r:id="rId48" display="https://leetcode.cn/problems/minimum-reverse-operations/" xr:uid="{DC7B1091-B1E7-4044-A609-F01D59A1B885}"/>
+    <hyperlink ref="B4" r:id="rId49" display="https://leetcode.cn/contest/weekly-contest-145/problems/longest-well-performing-interval/" xr:uid="{E1BF2635-D751-4CD7-A6C7-7DD4202C1D09}"/>
+    <hyperlink ref="B5" r:id="rId50" display="https://leetcode.cn/problems/smallest-sufficient-team/" xr:uid="{C1F90A54-B394-4FD5-B93E-9D58AE9552CE}"/>
+    <hyperlink ref="B3" r:id="rId51" display="https://leetcode.cn/problems/lowest-common-ancestor-of-deepest-leaves/description/?orderBy=hot" xr:uid="{C0ED08D0-11B4-4C52-B1C4-A921C968BC97}"/>
+    <hyperlink ref="B2" r:id="rId52" display="https://leetcode.cn/problems/relative-sort-array/description/?orderBy=hot" xr:uid="{2B8BA876-9E65-4FAA-9D9E-B3B19B60E4D1}"/>
+    <hyperlink ref="B22" r:id="rId53" display="https://leetcode.cn/problems/largest-number-after-digit-swaps-by-parity/" xr:uid="{5C19132F-F40F-4CB9-AC44-137149C4BBB2}"/>
+    <hyperlink ref="B23" r:id="rId54" display="https://leetcode.cn/problems/minimize-result-by-adding-parentheses-to-expression/" xr:uid="{77E59A67-7A82-437C-AF93-909CEACA11CC}"/>
+    <hyperlink ref="B24" r:id="rId55" display="https://leetcode.cn/problems/maximum-product-after-k-increments/" xr:uid="{A3F20CCA-510C-4A2D-965B-92BE3195D6E2}"/>
+    <hyperlink ref="B25" r:id="rId56" display="https://leetcode.cn/problems/maximum-total-beauty-of-the-gardens/" xr:uid="{827913F9-EE4D-4367-BF16-2BB638BC5430}"/>
+    <hyperlink ref="B18" r:id="rId57" display="https://leetcode.cn/problems/minimum-number-of-operations-to-convert-time/" xr:uid="{BF1EA9F2-2872-49A4-BD3D-4750295DE3AF}"/>
+    <hyperlink ref="B19" r:id="rId58" display="https://leetcode.cn/problems/find-players-with-zero-or-one-losses/" xr:uid="{D78808C8-1C00-4260-808E-65B5128BD5C2}"/>
+    <hyperlink ref="B20" r:id="rId59" display="https://leetcode.cn/problems/maximum-candies-allocated-to-k-children/" xr:uid="{466479EE-1A8F-40C2-90C9-A8235E93EF7F}"/>
+    <hyperlink ref="B21" r:id="rId60" display="https://leetcode.cn/problems/encrypt-and-decrypt-strings/" xr:uid="{437AA208-20E0-4640-90C4-6507BBA3F9B1}"/>
+    <hyperlink ref="B14" r:id="rId61" display="https://leetcode.cn/problems/a-number-after-a-double-reversal/" xr:uid="{F96C345E-32DD-40B9-B0FB-6BF567DC5C20}"/>
+    <hyperlink ref="B15" r:id="rId62" display="https://leetcode.cn/problems/execution-of-all-suffix-instructions-staying-in-a-grid/" xr:uid="{CF33A895-784D-472F-85B1-F9382F3344DF}"/>
+    <hyperlink ref="B16" r:id="rId63" display="https://leetcode.cn/problems/intervals-between-identical-elements/" xr:uid="{88275CCE-7354-4EC7-9783-85E9ED442BCC}"/>
+    <hyperlink ref="B17" r:id="rId64" display="https://leetcode.cn/problems/recover-the-original-array/" xr:uid="{4D817A6C-927E-4AB1-AE43-DF28BAF35D5E}"/>
+    <hyperlink ref="B6" r:id="rId65" display="https://leetcode.cn/problems/rings-and-rods/" xr:uid="{355A7346-8C97-47BF-A02A-53397A3BBA17}"/>
+    <hyperlink ref="B7" r:id="rId66" display="https://leetcode.cn/problems/sum-of-subarray-ranges/" xr:uid="{EBA2AC2E-F42B-4F57-9F67-5B2174597CFE}"/>
+    <hyperlink ref="B8" r:id="rId67" display="https://leetcode.cn/problems/watering-plants-ii/" xr:uid="{A2498012-F88F-42FC-AE58-5699245074F8}"/>
+    <hyperlink ref="B9" r:id="rId68" display="https://leetcode.cn/problems/maximum-fruits-harvested-after-at-most-k-steps/" xr:uid="{58FBC84B-9495-4728-980A-7EFB4EAA0740}"/>
+    <hyperlink ref="B10" r:id="rId69" display="https://leetcode.cn/problems/find-first-palindromic-string-in-the-array/" xr:uid="{5CBE4ACE-8A2B-4D50-BD9B-C5ED6224EA59}"/>
+    <hyperlink ref="B11" r:id="rId70" display="https://leetcode.cn/problems/adding-spaces-to-a-string/" xr:uid="{3CFF1891-52C0-4B21-92A9-8328813DBF5B}"/>
+    <hyperlink ref="B12" r:id="rId71" display="https://leetcode.cn/problems/number-of-smooth-descent-periods-of-a-stock/" xr:uid="{D4AE8A4E-194F-4E6C-86E9-C91A52338533}"/>
+    <hyperlink ref="B13" r:id="rId72" display="https://leetcode.cn/problems/minimum-operations-to-make-the-array-k-increasing/" xr:uid="{AF71A6F8-C340-4271-99B7-C09536D79B11}"/>
+    <hyperlink ref="B50" r:id="rId73" display="https://leetcode.cn/problems/greatest-english-letter-in-upper-and-lower-case/" xr:uid="{425BE038-3400-41ED-A21D-40FEC613BA62}"/>
+    <hyperlink ref="B51" r:id="rId74" display="https://leetcode.cn/problems/sum-of-numbers-with-units-digit-k/" xr:uid="{9E941B49-028C-47AE-8BD6-BA0811A1C256}"/>
+    <hyperlink ref="B52" r:id="rId75" display="https://leetcode.cn/problems/longest-binary-subsequence-less-than-or-equal-to-k/" xr:uid="{EEB431DF-0BF1-46DC-BDE5-E86301DB7A9C}"/>
+    <hyperlink ref="B53" r:id="rId76" display="https://leetcode.cn/problems/selling-pieces-of-wood/" xr:uid="{233D0802-AAE7-4C60-9052-E20EDD737EAD}"/>
+    <hyperlink ref="B58" r:id="rId77" display="https://leetcode.cn/problems/smallest-even-multiple/" xr:uid="{EA49CBB5-6256-4535-9832-C20420AE9F53}"/>
+    <hyperlink ref="B59" r:id="rId78" display="https://leetcode.cn/problems/length-of-the-longest-alphabetical-continuous-substring/" xr:uid="{D265562C-A83F-4AD2-8E8B-DD60F5734805}"/>
+    <hyperlink ref="B60" r:id="rId79" display="https://leetcode.cn/problems/reverse-odd-levels-of-binary-tree/" xr:uid="{D6DDB1D7-9A62-4E6B-B632-B04073BC7FC0}"/>
+    <hyperlink ref="B61" r:id="rId80" display="https://leetcode.cn/problems/sum-of-prefix-scores-of-strings/" xr:uid="{8C5205F7-ABE3-4C39-9737-EED6D2CE3013}"/>
+    <hyperlink ref="B62" r:id="rId81" display="https://leetcode.cn/problems/sort-the-people/" xr:uid="{DD256D53-4070-43FD-B841-91F2033770E8}"/>
+    <hyperlink ref="B63" r:id="rId82" display="https://leetcode.cn/problems/longest-subarray-with-maximum-bitwise-and/" xr:uid="{09BC1690-F208-45A5-8B93-AC12005C24BA}"/>
+    <hyperlink ref="B64" r:id="rId83" display="https://leetcode.cn/problems/find-all-good-indices/" xr:uid="{F5DFA790-9A66-4445-83E6-2639B6D00AAE}"/>
+    <hyperlink ref="B65" r:id="rId84" display="https://leetcode.cn/problems/number-of-good-paths/" xr:uid="{5FB9D412-DF83-4970-AF2C-6F5E8DD42072}"/>
+    <hyperlink ref="B66" r:id="rId85" display="https://leetcode.cn/problems/number-of-common-factors/" xr:uid="{8A607D93-CC73-4036-89EA-1B038C55A36A}"/>
+    <hyperlink ref="B67" r:id="rId86" display="https://leetcode.cn/problems/maximum-sum-of-an-hourglass/" xr:uid="{6F0A0220-4F9D-4103-A6E2-2D2715FFDF89}"/>
+    <hyperlink ref="B68" r:id="rId87" display="https://leetcode.cn/problems/minimize-xor/" xr:uid="{8BCC891C-8BBF-4FF3-9C5D-344143D9371F}"/>
+    <hyperlink ref="B69" r:id="rId88" display="https://leetcode.cn/problems/maximum-deletions-on-a-string/" xr:uid="{BEF648D0-E11A-45C6-B200-20F225BE1BEA}"/>
+    <hyperlink ref="B70" r:id="rId89" display="https://leetcode.cn/problems/the-employee-that-worked-on-the-longest-task/" xr:uid="{3DFC79B2-F286-4872-B7BE-DAAB38164BB2}"/>
+    <hyperlink ref="B71" r:id="rId90" display="https://leetcode.cn/problems/find-the-original-array-of-prefix-xor/" xr:uid="{E1568B6E-D557-461A-BA71-A81FC5C53E08}"/>
+    <hyperlink ref="B72" r:id="rId91" display="https://leetcode.cn/problems/using-a-robot-to-print-the-lexicographically-smallest-string/" xr:uid="{EA119186-B05B-4947-88FB-A17DDA482EB4}"/>
+    <hyperlink ref="B73" r:id="rId92" display="https://leetcode.cn/problems/paths-in-matrix-whose-sum-is-divisible-by-k/" xr:uid="{6DC92DC3-E4AF-461E-8FE9-5E040DF9F82F}"/>
+    <hyperlink ref="B74" r:id="rId93" display="https://leetcode.cn/problems/determine-if-two-events-have-conflict/" xr:uid="{A9E9B325-B90B-46BB-BDF5-8C317724A03D}"/>
+    <hyperlink ref="B75" r:id="rId94" display="https://leetcode.cn/problems/number-of-subarrays-with-gcd-equal-to-k/" xr:uid="{F978C0CE-E5D9-48EC-BEE1-12E550A2BAE6}"/>
+    <hyperlink ref="B76" r:id="rId95" display="https://leetcode.cn/problems/minimum-cost-to-make-array-equal/" xr:uid="{6BBB191A-A33A-4A37-A751-C6B55591FC25}"/>
+    <hyperlink ref="B77" r:id="rId96" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-arrays-similar/" xr:uid="{4348B64E-BB66-49F5-9A08-34681BAD7395}"/>
+    <hyperlink ref="B78" r:id="rId97" display="https://leetcode.cn/problems/average-value-of-even-numbers-that-are-divisible-by-three/" xr:uid="{46FC10F1-9E30-458D-A33E-7920E1F4795B}"/>
+    <hyperlink ref="B79" r:id="rId98" display="https://leetcode.cn/problems/most-popular-video-creator/" xr:uid="{6AAE9E87-44F8-49F6-8961-924A2B9C7C0A}"/>
+    <hyperlink ref="B80" r:id="rId99" display="https://leetcode.cn/problems/minimum-addition-to-make-integer-beautiful/" xr:uid="{4B90F74C-FDE3-4C49-894D-F0F0F5EBED8C}"/>
+    <hyperlink ref="B81" r:id="rId100" display="https://leetcode.cn/problems/height-of-binary-tree-after-subtree-removal-queries/" xr:uid="{5A7637C2-82FD-4219-A4BD-CFD3E16BA29F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
-  <drawing r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
+  <drawing r:id="rId102"/>
 </worksheet>
 </file>
 
@@ -3563,33 +5197,33 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3622,93 +5256,93 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/周赛分析.xlsx
+++ b/周赛分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\languguetest\Cplusplustest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E897D4A-74A8-4728-9AED-69C0503295D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206B1EA-186C-48D3-B62D-BA3069D243D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25780" windowHeight="15460" xr2:uid="{0B88C1B5-A7EB-4D31-9CC8-02929922C0EC}"/>
   </bookViews>
   <sheets>
     <sheet name="周赛" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,7 @@
     <sheet name="LCCPU" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周赛!$A$1:$G$102</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">周赛!$I$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">周赛!$J$27:$O$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">周赛!$J$28:$O$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">周赛!$A$1:$G$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="207">
   <si>
     <t>第 290 场周赛</t>
   </si>
@@ -737,6 +734,22 @@
   </si>
   <si>
     <t>2458. 移除子树后的二叉树高度 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2614. 对角线上的质数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2615. 等值距离和 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2616. 最小化数对的最大差值 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>2617. 网格图中最少访问的格子数 - 力扣（Leetcode）</t>
+  </si>
+  <si>
+    <t>第 341 场周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -824,7 +837,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -842,66 +855,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1150,7 +1103,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1214,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,7 +1436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,6 +1728,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-959C-4835-8A33-B6DDE9511117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1790,6 +1748,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-959C-4835-8A33-B6DDE9511117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1805,6 +1768,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-959C-4835-8A33-B6DDE9511117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1820,6 +1788,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-959C-4835-8A33-B6DDE9511117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1835,6 +1808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-959C-4835-8A33-B6DDE9511117}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1924,16 +1902,16 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3654,11 +3632,11 @@
       </c>
       <c r="K6">
         <f>COUNTIF($C:$C,"&lt;="&amp;L5)-COUNTIF($C:$C,"&lt;"&amp;K5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <f>COUNTIF($C:$C,"&lt;="&amp;M5)-COUNTIF($C:$C,"&lt;"&amp;L5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <f>COUNTIF($C:$C,"&lt;="&amp;N5)-COUNTIF($C:$C,"&lt;"&amp;M5)</f>
@@ -3666,11 +3644,11 @@
       </c>
       <c r="N6">
         <f>COUNTIF($C:$C,"&lt;="&amp;O5)-COUNTIF($C:$C,"&lt;"&amp;N5)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6">
         <f>SUM(J6:O6)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3966,19 +3944,19 @@
         <v>20</v>
       </c>
       <c r="K28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>11</v>
       </c>
       <c r="N28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4841,7 +4819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:15">
       <c r="B97" s="1" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4869,7 +4847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:15">
       <c r="B99" s="1" t="s">
         <v>121</v>
       </c>
@@ -4883,7 +4861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:15">
       <c r="B100" s="1" t="s">
         <v>122</v>
       </c>
@@ -4903,7 +4881,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:15">
       <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
@@ -4914,159 +4892,164 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="N103" t="s">
+      <c r="B102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102">
+        <v>1375</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103">
+        <v>1793</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="B104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104">
+        <v>2155</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="B105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105">
+        <v>2581</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="O111" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
-      <c r="O108" t="s">
+    <row r="116" spans="9:17">
+      <c r="P116" t="s">
         <v>124</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q116" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
-      <c r="N109" t="s">
+    <row r="117" spans="9:17">
+      <c r="O117" t="s">
         <v>126</v>
       </c>
-      <c r="O109">
+      <c r="P117">
         <v>1602</v>
       </c>
-      <c r="P109">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="N110" t="s">
+      <c r="Q117">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="118" spans="9:17">
+      <c r="O118" t="s">
         <v>127</v>
       </c>
-      <c r="O110">
-        <v>1153</v>
-      </c>
-      <c r="P110">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="N111" t="s">
+      <c r="P118">
+        <v>1144</v>
+      </c>
+      <c r="Q118">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="119" spans="9:17">
+      <c r="O119" t="s">
         <v>128</v>
       </c>
-      <c r="O111">
-        <v>1308.625</v>
-      </c>
-      <c r="P111">
-        <v>1313.0666666666666</v>
-      </c>
-    </row>
-    <row r="114" spans="8:16">
-      <c r="O114" t="s">
-        <v>124</v>
-      </c>
-      <c r="P114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="8:16">
-      <c r="N115" t="s">
-        <v>126</v>
-      </c>
-      <c r="O115">
-        <v>2621</v>
-      </c>
-      <c r="P115">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="116" spans="8:16">
-      <c r="N116" t="s">
-        <v>127</v>
-      </c>
-      <c r="O116">
-        <v>1504</v>
-      </c>
-      <c r="P116">
+      <c r="P119">
+        <v>1299.6410256410256</v>
+      </c>
+      <c r="Q119">
+        <v>1919.9074074074074</v>
+      </c>
+    </row>
+    <row r="125" spans="9:17">
+      <c r="P125">
         <v>1558</v>
       </c>
     </row>
-    <row r="117" spans="8:16">
-      <c r="N117" t="s">
-        <v>128</v>
-      </c>
-      <c r="O117">
-        <v>1911</v>
-      </c>
-      <c r="P117">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="118" spans="8:16">
-      <c r="I118" t="s">
-        <v>32</v>
-      </c>
-      <c r="J118" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="8:16">
-      <c r="H119" t="s">
+    <row r="127" spans="9:17">
+      <c r="I127" t="s">
         <v>116</v>
       </c>
-      <c r="I119">
+      <c r="J127">
         <f>SUBTOTAL(4,C:C)</f>
         <v>2824</v>
       </c>
-      <c r="J119">
-        <f>SUBTOTAL(4,C50:C93)</f>
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="120" spans="8:16">
-      <c r="H120" t="s">
+    </row>
+    <row r="128" spans="9:17">
+      <c r="I128" t="s">
         <v>118</v>
       </c>
-      <c r="I120">
+      <c r="J128">
         <f>SUBTOTAL(5,C:C)</f>
         <v>1144</v>
       </c>
-      <c r="J120">
-        <f>SUBTOTAL(5,C50:C93)</f>
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="121" spans="8:16">
-      <c r="H121" t="s">
+    </row>
+    <row r="129" spans="9:10">
+      <c r="I129" t="s">
         <v>117</v>
       </c>
-      <c r="I121">
+      <c r="J129">
         <f>SUBTOTAL(1,C:C)</f>
-        <v>1656.76</v>
-      </c>
-      <c r="J121">
-        <f>SUBTOTAL(1,C50:C93)</f>
-        <v>1624.5681818181818</v>
-      </c>
-      <c r="O121">
-        <v>1558</v>
+        <v>1669.0384615384614</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G102" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}"/>
+  <autoFilter ref="A1:G109" xr:uid="{243F350D-8E2A-4BE4-A174-F616E6119432}"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>1600</formula>
       <formula>1700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>1600</formula>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>1700</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5171,10 +5154,14 @@
     <hyperlink ref="B79" r:id="rId98" display="https://leetcode.cn/problems/most-popular-video-creator/" xr:uid="{6AAE9E87-44F8-49F6-8961-924A2B9C7C0A}"/>
     <hyperlink ref="B80" r:id="rId99" display="https://leetcode.cn/problems/minimum-addition-to-make-integer-beautiful/" xr:uid="{4B90F74C-FDE3-4C49-894D-F0F0F5EBED8C}"/>
     <hyperlink ref="B81" r:id="rId100" display="https://leetcode.cn/problems/height-of-binary-tree-after-subtree-removal-queries/" xr:uid="{5A7637C2-82FD-4219-A4BD-CFD3E16BA29F}"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://leetcode.cn/problems/prime-in-diagonal/" xr:uid="{517FD638-81E4-4500-BBF1-9FF420E65437}"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://leetcode.cn/problems/sum-of-distances/" xr:uid="{A6DD8C7B-0D01-4182-993D-4952B7E46C4E}"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://leetcode.cn/problems/minimize-the-maximum-difference-of-pairs/" xr:uid="{04BE78CE-8B56-4CD6-9EC6-0FA19A8E3AFC}"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://leetcode.cn/problems/minimum-number-of-visited-cells-in-a-grid/" xr:uid="{E798E76B-1CF7-4049-88E5-27D82FD0783E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
-  <drawing r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>
 
